--- a/biology/Médecine/Enfant-bulle/Enfant-bulle.xlsx
+++ b/biology/Médecine/Enfant-bulle/Enfant-bulle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un enfant-bulle (ou bébé-bulle pour les plus jeunes) est une personne dont les défenses immunitaires sont fortement affaiblies, voire inexistantes, si bien qu'elle doit être placée dans une bulle pour sa protection immunitaire.
 Cela résulte le plus souvent d'une immunodéficience innée. Le nom d'« enfant-bulle » vient du fait que ces enfants doivent vivre dans un milieu stérile et isolé au maximum de l'environnement afin d'éviter les infections. En effet ils ne doivent jamais sortir de chez eux au risque de grave maladie. L'air doit être filtré et il faut éviter le plus de visite possible au cours de la vie de l'enfant.  Cette immunodéficience vient en général des cellules souches de la moelle osseuse qui génèrent un problème au niveau de la différenciation des lymphocytes T et des lymphocytes NK ou une anomalie dans la synthèse de cytokines.
